--- a/iselUssSyncV2/OutputWSL/20220428_1235_D50L474W90Q30.0U0.40H94G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1235_D50L474W90Q30.0U0.40H94G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>94.953386454183288</v>
+        <v>94.954317221204235</v>
       </c>
       <c r="F2" s="0">
-        <v>95.322310756972072</v>
+        <v>95.323241523993133</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>95.500119047619037</v>
+        <v>95.502394255892497</v>
       </c>
       <c r="F3" s="0">
-        <v>97.028571428571425</v>
+        <v>97.030846636844942</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>94.522023809523816</v>
+        <v>94.524774743163547</v>
       </c>
       <c r="F4" s="0">
-        <v>99.028769841269806</v>
+        <v>99.031520774909637</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>93.798055555555578</v>
+        <v>93.800861645759568</v>
       </c>
       <c r="F5" s="0">
-        <v>99.652341269841301</v>
+        <v>99.655147360045163</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>92.295976095617519</v>
+        <v>92.298830447815178</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>89.692976190476173</v>
+        <v>89.695871910096983</v>
       </c>
       <c r="F7" s="0">
-        <v>99.536666666666605</v>
+        <v>99.539562386287415</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>85.194262948207182</v>
+        <v>85.197193140680625</v>
       </c>
       <c r="F8" s="0">
-        <v>94.325577689243033</v>
+        <v>94.32850788171649</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>82.580796812748986</v>
+        <v>82.583738863883724</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>79.38171314741038</v>
+        <v>79.384665954075103</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,7 +296,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>76.084860557768891</v>
+        <v>76.087823016832402</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -314,7 +314,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>74.179482071713153</v>
+        <v>74.182448943301807</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -332,7 +332,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>72.640119521912339</v>
+        <v>72.643090530243285</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -350,7 +350,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>70.829003984063732</v>
+        <v>70.831978853354187</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -368,7 +368,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>68.853625498007972</v>
+        <v>68.856603952475112</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -386,10 +386,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>64.985793650793653</v>
+        <v>64.988778448265649</v>
       </c>
       <c r="F16" s="0">
-        <v>29.101507936507929</v>
+        <v>29.104492733979924</v>
       </c>
     </row>
     <row r="17">
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>60.612658730158728</v>
+        <v>60.615648767504325</v>
       </c>
       <c r="F17" s="0">
-        <v>28.850158730158729</v>
+        <v>28.853148767504319</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>58.113745019920323</v>
+        <v>58.116739194008218</v>
       </c>
       <c r="F18" s="0">
-        <v>28.77191235059761</v>
+        <v>28.77490652468552</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>52.507768924302781</v>
+        <v>52.510768062481468</v>
       </c>
       <c r="F19" s="0">
-        <v>29.296533864541832</v>
+        <v>29.299533002720519</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>46.329365079365083</v>
+        <v>46.332364217543763</v>
       </c>
       <c r="F20" s="0">
-        <v>31.020912698412705</v>
+        <v>31.023911836591388</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>41.192350597609547</v>
+        <v>41.19534284121773</v>
       </c>
       <c r="F21" s="0">
-        <v>41.039601593625491</v>
+        <v>41.042593837233653</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>37.207182539682542</v>
+        <v>37.210160994149639</v>
       </c>
       <c r="F22" s="0">
-        <v>68.525476190476184</v>
+        <v>68.528454644943295</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>34.335952380952357</v>
+        <v>34.338910151707886</v>
       </c>
       <c r="F23" s="0">
-        <v>72.895357142857137</v>
+        <v>72.89831491361268</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>32.230873015873009</v>
+        <v>32.233768735493825</v>
       </c>
       <c r="F24" s="0">
-        <v>53.249404761904756</v>
+        <v>53.25230048152558</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>36.022031872509956</v>
+        <v>36.024837962713931</v>
       </c>
       <c r="F25" s="0">
-        <v>50.126135458167333</v>
+        <v>50.128941548371287</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>53.142549800796807</v>
+        <v>53.145238683301834</v>
       </c>
       <c r="F26" s="0">
-        <v>50.120597609561756</v>
+        <v>50.123286492066782</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>63.992579365079372</v>
+        <v>63.995123461603363</v>
       </c>
       <c r="F27" s="0">
-        <v>47.443809523809527</v>
+        <v>47.446353620333511</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>44.659087301587299</v>
+        <v>44.661459033848153</v>
       </c>
       <c r="F28" s="0">
-        <v>53.225039682539673</v>
+        <v>53.227411414800521</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>64.127936507936496</v>
+        <v>64.1301082976521</v>
       </c>
       <c r="F29" s="0">
-        <v>67.322142857142879</v>
+        <v>67.324314646858468</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>50.780318725099583</v>
+        <v>50.782007894878404</v>
       </c>
       <c r="F30" s="0">
-        <v>57.343386454183261</v>
+        <v>57.345075623962082</v>
       </c>
     </row>
   </sheetData>
